--- a/scatter.xlsx
+++ b/scatter.xlsx
@@ -127,39 +127,24 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Scatter Chart</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
     <plotArea>
       <scatterChart>
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="15"/>
             <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -167,31 +152,31 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Sheet'!$A$2:$A$7</f>
+              <f>'Sheet'!$B$1</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet'!$B$2:$B$7</f>
+              <f>'Sheet'!$A$1</f>
             </numRef>
           </yVal>
         </ser>
         <ser>
           <idx val="1"/>
           <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="15"/>
             <spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -199,12 +184,204 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Sheet'!$A$2:$A$7</f>
+              <f>'Sheet'!$B$2</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet'!$C$2:$C$7</f>
+              <f>'Sheet'!$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="15"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Sheet'!$B$3</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Sheet'!$A$3</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="15"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Sheet'!$B$4</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Sheet'!$A$4</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="15"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF7F7F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Sheet'!$B$5</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Sheet'!$A$5</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="15"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Sheet'!$B$6</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Sheet'!$A$6</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="15"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Sheet'!$B$7</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Sheet'!$A$7</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="15"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF7F7F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Sheet'!$B$8</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Sheet'!$A$8</f>
             </numRef>
           </yVal>
         </ser>
@@ -218,21 +395,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="20"/>
@@ -244,21 +406,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Percentage</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -277,9 +424,9 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>2</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -589,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,84 +747,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Batch 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Batch 2</t>
+          <t>Sample</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
+      <c r="B9" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
